--- a/[Data] WES_PASS/Patient-54-indels.xlsx
+++ b/[Data] WES_PASS/Patient-54-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="292">
   <si>
     <t>NG.8132_54B_lib74101_3782_2</t>
   </si>
@@ -46,547 +46,850 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_10523728</t>
   </si>
   <si>
-    <t>DFFA</t>
+    <t>AGL missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_100336336   </t>
   </si>
   <si>
     <t>chr1_17185415</t>
   </si>
   <si>
-    <t>CROCC:RP11-108M9.2</t>
+    <t>RYR2 missense_variant&amp;splice_region_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_237753941   </t>
   </si>
   <si>
     <t>chr1_20441896</t>
   </si>
   <si>
-    <t>PLA2G2D</t>
+    <t>ZNF669 3_prime_UTR_variant:ZNF669 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_247264285   </t>
   </si>
   <si>
     <t>chr1_145017822</t>
   </si>
   <si>
-    <t>PDE4DIP</t>
+    <t>HELT intron_variant&amp;non_coding_transcript_variant:HELT intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_185940273   </t>
   </si>
   <si>
     <t>chr1_151538784</t>
   </si>
   <si>
-    <t>TUFT1</t>
+    <t>MDN1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_90490116   </t>
   </si>
   <si>
     <t>chr1_152327961</t>
   </si>
   <si>
-    <t>FLG-AS1:FLG2</t>
+    <t>ZUFSP intron_variant&amp;non_coding_transcript_variant:ZUFSP intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_116966802   </t>
   </si>
   <si>
     <t>chr1_158300527</t>
   </si>
   <si>
-    <t>CD1B</t>
+    <t>VNN2 3_prime_UTR_variant&amp;NMD_transcript_variant:VNN2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_133070956   </t>
   </si>
   <si>
     <t>chr1_161293492</t>
   </si>
   <si>
-    <t>SDHC</t>
+    <t>MYB missense_variant&amp;NMD_transcript_variant:MYB 3_prime_UTR_variant&amp;NMD_transcript_variant:MYB missense_variant:MYB intron_variant:MYB-AS1 intron_variant&amp;non_coding_transcript_variant:MYB non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:MYB intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_135517022   </t>
+  </si>
+  <si>
+    <t>MYB:MYB:MYB:MYB:MYB:MYB</t>
+  </si>
+  <si>
+    <t>missense_variant&amp;NMD_transcript_variant:3_prime_UTR_variant&amp;NMD_transcript_variant:missense_variant:intron_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr1_234582418</t>
   </si>
   <si>
+    <t>PTEN frameshift_variant:PTEN non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr10_89720804   PTEN Indel frameshift_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>PTEN:PTEN</t>
+  </si>
+  <si>
+    <t>frameshift_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr1_237679231</t>
+  </si>
+  <si>
+    <t>INPP5F intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_121541048   </t>
+  </si>
+  <si>
+    <t>chr2_5833525</t>
+  </si>
+  <si>
+    <t>CCDC83 intron_variant:CCDC83 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_85606584   </t>
+  </si>
+  <si>
+    <t>chr2_23980108</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>chr1_237679231</t>
-  </si>
-  <si>
-    <t>RYR2</t>
-  </si>
-  <si>
-    <t>chr2_5833525</t>
-  </si>
-  <si>
-    <t>chr2_23980108</t>
-  </si>
-  <si>
-    <t>ATAD2B</t>
+    <t xml:space="preserve">chr12_119583156   </t>
   </si>
   <si>
     <t>chr2_99185276</t>
   </si>
   <si>
-    <t>INPP4A</t>
+    <t>CA10 intron_variant:CA10 intron_variant&amp;non_coding_transcript_variant:CA10 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_50008680   </t>
   </si>
   <si>
     <t>chr2_125622668</t>
   </si>
   <si>
+    <t xml:space="preserve">chr19_9067841   </t>
+  </si>
+  <si>
     <t>chr2_128874107</t>
   </si>
   <si>
-    <t>UGGT1</t>
+    <t xml:space="preserve">chr19_9237066   </t>
   </si>
   <si>
     <t>chr2_145255397</t>
   </si>
   <si>
-    <t>ZEB2</t>
+    <t>LYPD5 intron_variant:LYPD5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_44302434   </t>
   </si>
   <si>
     <t>chr3_145820681</t>
   </si>
   <si>
-    <t>PLOD2:RP11-274H2.2</t>
+    <t>C1QTNF9B intron_variant:C1QTNF9B-AS1 intron_variant&amp;non_coding_transcript_variant:C1QTNF9B intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_24466302   </t>
   </si>
   <si>
     <t>chr3_185985706</t>
   </si>
   <si>
-    <t>DGKG</t>
+    <t xml:space="preserve">chr16_46395445   </t>
   </si>
   <si>
     <t>chr3_193366743</t>
   </si>
   <si>
-    <t>OPA1</t>
+    <t>PARP4 intron_variant:TPTE2P6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25016231   </t>
   </si>
   <si>
     <t>chr3_196795254</t>
   </si>
   <si>
-    <t>DLG1</t>
+    <t>CEP95 intron_variant:CEP95 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_62506023   </t>
   </si>
   <si>
     <t>chr4_1230460</t>
   </si>
   <si>
-    <t>CTBP1</t>
+    <t>CCDC57 intron_variant&amp;NMD_transcript_variant:CCDC57 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_80085279   </t>
   </si>
   <si>
     <t>chr4_31018405</t>
   </si>
   <si>
-    <t>PCDH7</t>
+    <t>ATAD2B intron_variant&amp;non_coding_transcript_variant:ATAD2B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_23980108   </t>
   </si>
   <si>
     <t>chr4_109790022</t>
   </si>
   <si>
-    <t>COL25A1</t>
+    <t xml:space="preserve">chr11_94782524   </t>
   </si>
   <si>
     <t>chr4_151770174</t>
   </si>
   <si>
-    <t>LRBA</t>
+    <t>HLA-B synonymous_variant:HLA-B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31324176   </t>
   </si>
   <si>
     <t>chr4_174253276</t>
   </si>
   <si>
-    <t>HMGB2</t>
+    <t>LSS intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_47613713   </t>
   </si>
   <si>
     <t>chr5_914835</t>
   </si>
   <si>
-    <t>TRIP13</t>
+    <t>PLA2G2D intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_20441896   </t>
   </si>
   <si>
     <t>chr5_5955299</t>
   </si>
   <si>
+    <t>ABCA7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_1051370   </t>
+  </si>
+  <si>
     <t>chr6_43970503</t>
   </si>
   <si>
-    <t>C6orf223:RP5-1120P11.1</t>
+    <t>NFASC intron_variant:NFASC intron_variant&amp;non_coding_transcript_variant:NFASC intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_204951322   </t>
   </si>
   <si>
     <t>chr6_46665626</t>
   </si>
   <si>
-    <t>TDRD6</t>
+    <t>DNMT3A intron_variant&amp;non_coding_transcript_variant:DNMT3A intron_variant:DNMT3A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DNMT3A intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_25470331   </t>
+  </si>
+  <si>
+    <t>DNMT3A:DNMT3A:DNMT3A:DNMT3A</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr6_157099981</t>
   </si>
   <si>
-    <t>ARID1B</t>
+    <t>EBF1 missense_variant:EBF1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_158140119   </t>
+  </si>
+  <si>
+    <t>EBF1:EBF1</t>
+  </si>
+  <si>
+    <t>missense_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr6_163836344</t>
   </si>
   <si>
-    <t>QKI</t>
+    <t>ACAT2 intron_variant:ACAT2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_160198617   </t>
   </si>
   <si>
     <t>chr7_36007749</t>
   </si>
   <si>
-    <t>SEPT7P3</t>
+    <t>ORC5 missense_variant:ORC5 3_prime_UTR_variant&amp;NMD_transcript_variant:ORC5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_103777309   </t>
   </si>
   <si>
     <t>chr7_36660502</t>
   </si>
   <si>
-    <t>AOAH</t>
+    <t>TUSC3 intron_variant:TUSC3 intron_variant&amp;NMD_transcript_variant:TUSC3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_15519817   </t>
   </si>
   <si>
     <t>chr7_133976714</t>
   </si>
   <si>
+    <t>GFI1B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_135862222   </t>
+  </si>
+  <si>
     <t>chr7_138957240</t>
   </si>
   <si>
-    <t>UBN2</t>
+    <t xml:space="preserve">chr10_75397593   </t>
   </si>
   <si>
     <t>chr8_38090388</t>
   </si>
   <si>
-    <t>DDHD2</t>
+    <t>TUBA1A 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_49578766   </t>
   </si>
   <si>
     <t>chr8_101721429</t>
   </si>
   <si>
-    <t>PABPC1</t>
+    <t>KSR2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:KSR2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_117962829   </t>
   </si>
   <si>
     <t>chr8_145998513</t>
   </si>
   <si>
-    <t>ZNF34</t>
+    <t>RYR3 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_33955849   </t>
   </si>
   <si>
     <t>chr9_68409597</t>
   </si>
   <si>
-    <t>RP11-764K9.1</t>
+    <t>ZNF90 intron_variant&amp;non_coding_transcript_variant:ZNF90 intron_variant:ZNF90 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_20228509   </t>
   </si>
   <si>
     <t>chr9_109694519</t>
   </si>
   <si>
-    <t>ZNF462</t>
+    <t>SNRNP70 missense_variant&amp;NMD_transcript_variant:SNRNP70 missense_variant:SNRNP70 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_49604683   </t>
   </si>
   <si>
     <t>chr10_89720804</t>
   </si>
   <si>
-    <t>PTEN</t>
-  </si>
-  <si>
-    <t>PTEN Indel</t>
+    <t xml:space="preserve">chr2_48602571   </t>
   </si>
   <si>
     <t>chr10_121541048</t>
   </si>
   <si>
-    <t>INPP5F</t>
+    <t>CCDC84 intron_variant&amp;non_coding_transcript_variant:CCDC84 intron_variant:CCDC84 intron_variant&amp;NMD_transcript_variant:RP11-110I1.11 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_118875472   </t>
   </si>
   <si>
     <t>chr11_308599</t>
   </si>
   <si>
-    <t>IFITM2</t>
+    <t>UGGT1 intron_variant&amp;NMD_transcript_variant:UGGT1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_128874107   </t>
   </si>
   <si>
     <t>chr11_2431995</t>
   </si>
   <si>
-    <t>TRPM5</t>
+    <t>NBPF1 intron_variant&amp;NMD_transcript_variant:NBPF1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16894380   </t>
   </si>
   <si>
     <t>chr11_47380276</t>
   </si>
   <si>
-    <t>SPI1</t>
+    <t>PTGES3L-AARSD1 intron_variant&amp;NMD_transcript_variant:AARSD1 intron_variant&amp;non_coding_transcript_variant:AARSD1 intron_variant:AARSD1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PTGES3L-AARSD1 intron_variant:AARSD1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_41108009   </t>
   </si>
   <si>
     <t>chr11_118875472</t>
   </si>
   <si>
-    <t>CCDC84:RP11-110I1.11</t>
+    <t xml:space="preserve">chr8_7332361   </t>
   </si>
   <si>
     <t>chr11_124311024</t>
   </si>
   <si>
+    <t xml:space="preserve">chr14_106815706   </t>
+  </si>
+  <si>
     <t>chr12_4409270</t>
   </si>
   <si>
+    <t>VIPAS39 missense_variant:VIPAS39 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_77910605   </t>
+  </si>
+  <si>
     <t>chr12_13724941</t>
   </si>
   <si>
+    <t>SPEF2 missense_variant:CTD-2113L7.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_35759770   </t>
+  </si>
+  <si>
     <t>chr12_15702202</t>
   </si>
   <si>
-    <t>PTPRO</t>
+    <t xml:space="preserve">chr13_64320999   </t>
   </si>
   <si>
     <t>chr12_32140361</t>
   </si>
   <si>
-    <t>KIAA1551</t>
+    <t>RP11-726G1.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-726G1.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_9710038   </t>
   </si>
   <si>
     <t>chr12_49578766</t>
   </si>
   <si>
-    <t>TUBA1A</t>
+    <t>LRCOL1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_133182783   </t>
   </si>
   <si>
     <t>chr12_50395166</t>
   </si>
   <si>
-    <t>RACGAP1</t>
+    <t>OPN5 intron_variant&amp;non_coding_transcript_variant:OPN5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_47779250   </t>
   </si>
   <si>
     <t>chr12_57864690</t>
   </si>
   <si>
-    <t>GLI1</t>
+    <t>DGKG intron_variant:DGKG intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_185985706   </t>
   </si>
   <si>
     <t>chr12_123099427</t>
   </si>
   <si>
-    <t>KNTC1</t>
+    <t>PSME1 splice_region_variant&amp;non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PSME1 missense_variant&amp;splice_region_variant:PSME1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PSME1 missense_variant&amp;splice_region_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_24607471   </t>
   </si>
   <si>
     <t>chr12_133182783</t>
   </si>
   <si>
-    <t>LRCOL1</t>
+    <t>XAB2 synonymous_variant:XAB2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_7690832   </t>
   </si>
   <si>
     <t>chr13_49741485</t>
   </si>
   <si>
-    <t>FNDC3A</t>
+    <t>IGFN1 missense_variant:IGFN1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:IGFN1 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_201190739   </t>
   </si>
   <si>
     <t>chr13_64320999</t>
   </si>
   <si>
+    <t>COPS7B intron_variant:COPS7B intron_variant&amp;non_coding_transcript_variant:COPS7B intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_232665706   </t>
+  </si>
+  <si>
     <t>chr14_58599674</t>
   </si>
   <si>
-    <t>C14orf37</t>
+    <t>NEFM missense_variant:GS1-72M22.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NEFM non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NEFM intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_24771893   </t>
   </si>
   <si>
     <t>chr14_77336272</t>
   </si>
   <si>
-    <t>C14orf166B</t>
+    <t>OLFM1 intron_variant:OLFM1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_137998505   </t>
   </si>
   <si>
     <t>chr14_103987482</t>
   </si>
   <si>
-    <t>CKB</t>
+    <t>C14orf37 intron_variant:C14orf37 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_58599674   </t>
   </si>
   <si>
     <t>chr14_106518252</t>
   </si>
   <si>
+    <t>MAP2K5 intron_variant:MAP2K5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_67835921   </t>
+  </si>
+  <si>
     <t>chr15_79065557</t>
   </si>
   <si>
-    <t>ADAMTS7</t>
+    <t>AKNA intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_117127011   </t>
   </si>
   <si>
     <t>chr17_36634094</t>
   </si>
   <si>
-    <t>ARHGAP23</t>
+    <t xml:space="preserve">chr12_4409270   </t>
   </si>
   <si>
     <t>chr17_41108009</t>
   </si>
   <si>
-    <t>PTGES3L-AARSD1:AARSD1</t>
+    <t>NOX5 intron_variant&amp;non_coding_transcript_variant:NOX5 intron_variant:RP11-809H16.3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-809H16.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_69314828   </t>
   </si>
   <si>
     <t>chr17_45679203</t>
   </si>
   <si>
-    <t>NPEPPS</t>
+    <t>TP53 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TP53 missense_variant</t>
+  </si>
+  <si>
+    <t>chr17_7577512   TP53 SNV non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:missense_variant</t>
+  </si>
+  <si>
+    <t>TP53:TP53</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:missense_variant</t>
   </si>
   <si>
     <t>chr17_50008680</t>
   </si>
   <si>
-    <t>CA10</t>
+    <t xml:space="preserve">chr17_72349612   </t>
   </si>
   <si>
     <t>chr17_62506023</t>
   </si>
   <si>
-    <t>CEP95</t>
+    <t>RBFOX3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_77099443   </t>
   </si>
   <si>
     <t>chr17_77099443</t>
   </si>
   <si>
-    <t>RBFOX3</t>
+    <t>AC012314.8 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PRPF31 intron_variant&amp;non_coding_transcript_variant:PRPF31 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_54627039   </t>
   </si>
   <si>
     <t>chr17_78919469</t>
   </si>
   <si>
-    <t>RPTOR</t>
+    <t>MRAP intron_variant:MRAP 5_prime_UTR_variant:MRAP intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_33671190   </t>
   </si>
   <si>
     <t>chr17_80085279</t>
   </si>
   <si>
-    <t>CCDC57</t>
+    <t>FTCD intron_variant:FTCD intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_47570240   </t>
   </si>
   <si>
     <t>chr18_14848929</t>
   </si>
   <si>
-    <t>ANKRD30B</t>
+    <t>NRG1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_32406398   </t>
+  </si>
+  <si>
+    <t>NRG1</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
   </si>
   <si>
     <t>chr19_1051370</t>
   </si>
   <si>
-    <t>ABCA7</t>
+    <t>ADAMTS7 intron_variant&amp;non_coding_transcript_variant:ADAMTS7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_79065557   </t>
   </si>
   <si>
     <t>chr19_14507483</t>
   </si>
   <si>
-    <t>CD97</t>
+    <t>GIPR intron_variant&amp;NMD_transcript_variant:GIPR intron_variant:GIPR non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_46175976   </t>
   </si>
   <si>
     <t>chr19_20228509</t>
   </si>
   <si>
-    <t>ZNF90</t>
+    <t>ZNF320 intron_variant&amp;non_coding_transcript_variant:ZNF320 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_53390405   </t>
   </si>
   <si>
     <t>chr19_21366274</t>
   </si>
   <si>
-    <t>ZNF431</t>
+    <t xml:space="preserve">chrX_27997170   </t>
   </si>
   <si>
     <t>chr19_43596013</t>
   </si>
   <si>
+    <t xml:space="preserve">chr9_68409580   </t>
+  </si>
+  <si>
     <t>chr19_44302434</t>
   </si>
   <si>
-    <t>LYPD5</t>
+    <t>TRPM5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_2431995   </t>
   </si>
   <si>
     <t>chr19_45573562</t>
   </si>
   <si>
-    <t>CLASRP</t>
+    <t>ACSM2A intron_variant&amp;NMD_transcript_variant:ACSM2A intron_variant&amp;non_coding_transcript_variant:ACSM2A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_20481129   </t>
   </si>
   <si>
     <t>chr19_46175976</t>
   </si>
   <si>
-    <t>GIPR</t>
+    <t xml:space="preserve">chr16_46395406   </t>
   </si>
   <si>
     <t>chr19_47863043</t>
   </si>
   <si>
-    <t>DHX34</t>
+    <t>CLASRP intron_variant:CLASRP intron_variant&amp;non_coding_transcript_variant:CLASRP intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_45573562   </t>
   </si>
   <si>
     <t>chr19_51190682</t>
   </si>
   <si>
-    <t>SHANK1</t>
+    <t xml:space="preserve">chr1_16910013   </t>
   </si>
   <si>
     <t>chr19_53391213</t>
   </si>
   <si>
-    <t>ZNF320</t>
+    <t>SLC4A5 intron_variant:SLC4A5 intron_variant&amp;non_coding_transcript_variant:RP11-287D1.3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_74458333   </t>
   </si>
   <si>
     <t>chr19_54627039</t>
   </si>
   <si>
-    <t>AC012314.8:PRPF31</t>
+    <t>C4orf17 intron_variant&amp;non_coding_transcript_variant:C4orf17 intron_variant&amp;NMD_transcript_variant:C4orf17 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_100445818   </t>
   </si>
   <si>
     <t>chr20_10287450</t>
   </si>
   <si>
-    <t>SNAP25:SNAP25-AS1</t>
+    <t xml:space="preserve">chr7_133976714   </t>
   </si>
   <si>
     <t>chr20_25258916</t>
   </si>
   <si>
+    <t xml:space="preserve">chr10_42681309   </t>
+  </si>
+  <si>
     <t>chr21_10998079</t>
   </si>
   <si>
-    <t>TPTE:BAGE2</t>
+    <t xml:space="preserve">chr14_106518252   </t>
   </si>
   <si>
     <t>chr21_19687759</t>
   </si>
   <si>
-    <t>TMPRSS15</t>
+    <t>CCDC57 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CCDC57 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_80121126   </t>
   </si>
   <si>
     <t>chr21_30400154</t>
   </si>
   <si>
-    <t>USP16</t>
+    <t>ANKRD30B splice_donor_variant&amp;non_coding_transcript_variant:ANKRD30B splice_donor_variant&amp;intron_variant&amp;non_coding_transcript_variant:ANKRD30B splice_donor_variant:ANKRD30B splice_donor_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_14848929   </t>
   </si>
   <si>
     <t>chr21_47337484</t>
   </si>
   <si>
-    <t>PCBP3</t>
+    <t xml:space="preserve">chr19_54188204   </t>
   </si>
   <si>
     <t>chr21_47613713</t>
   </si>
   <si>
-    <t>LSS</t>
+    <t>PCBP3 intron_variant:PCBP3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_47337484   </t>
   </si>
   <si>
     <t>chr22_24656068</t>
   </si>
   <si>
-    <t>POM121L9P:BCRP1</t>
+    <t>FLG-AS1 intron_variant&amp;non_coding_transcript_variant:FLG2 inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_152327961   </t>
   </si>
   <si>
     <t>chrX_16707832</t>
   </si>
   <si>
-    <t>CTPS2</t>
+    <t>HLA-DQB2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_32726703   </t>
   </si>
   <si>
     <t>chrX_27997170</t>
   </si>
   <si>
+    <t>AHI1 missense_variant:AHI1 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_135784313   </t>
+  </si>
+  <si>
     <t>chrX_45843157</t>
   </si>
   <si>
-    <t>KRT18P68</t>
+    <t>UBN2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_138957240   </t>
   </si>
   <si>
     <t>chrX_138619409</t>
   </si>
   <si>
-    <t>F9</t>
+    <t>RPTOR non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RPTOR frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_78919469   </t>
   </si>
 </sst>
 </file>
@@ -918,13 +1221,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -955,10 +1258,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -985,12 +1294,15 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1017,12 +1329,15 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1049,12 +1364,15 @@
         <v>0.0487804878048781</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1081,12 +1399,15 @@
         <v>0.0204081632653061</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1113,12 +1434,15 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1145,12 +1469,15 @@
         <v>0.00179856115107914</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1177,12 +1504,15 @@
         <v>0.470059880239521</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1209,12 +1539,21 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1241,12 +1580,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1273,12 +1621,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1305,12 +1656,15 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1337,12 +1691,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1369,12 +1726,15 @@
         <v>0.08</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1401,12 +1761,15 @@
         <v>0.176470588235294</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1433,12 +1796,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1465,12 +1831,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1497,12 +1866,15 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1529,12 +1901,15 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1561,12 +1936,15 @@
         <v>0.172413793103448</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1593,12 +1971,15 @@
         <v>0.0192307692307692</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1625,12 +2006,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1657,12 +2041,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1689,12 +2076,15 @@
         <v>0.0307692307692308</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1721,12 +2111,15 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1753,12 +2146,15 @@
         <v>0.298969072164948</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1785,12 +2181,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>87</v>
+      </c>
+      <c r="K27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1817,12 +2216,15 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1849,12 +2251,15 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1881,12 +2286,21 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1913,12 +2327,21 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>101</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1945,12 +2368,15 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1977,12 +2403,15 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2009,12 +2438,15 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="K34" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2041,12 +2473,15 @@
         <v>0.1</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>115</v>
+      </c>
+      <c r="K35" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2073,12 +2508,15 @@
         <v>0.00862068965517241</v>
       </c>
       <c r="J36" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="K36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2105,12 +2543,15 @@
         <v>0.0394736842105263</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2137,12 +2578,15 @@
         <v>0.0114942528735632</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2169,12 +2613,15 @@
         <v>0.3</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>126</v>
+      </c>
+      <c r="K39" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2201,12 +2648,15 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="K40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2233,12 +2683,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2265,15 +2718,15 @@
         <v>0.507462686567164</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2300,12 +2753,15 @@
         <v>0.0566037735849057</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="K43" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2332,12 +2788,15 @@
         <v>0.0217391304347826</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="K44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2364,12 +2823,15 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>143</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2396,12 +2858,15 @@
         <v>0.0204081632653061</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>146</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2428,12 +2893,15 @@
         <v>0.15</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="K47" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2460,12 +2928,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2492,12 +2963,15 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2524,12 +2998,15 @@
         <v>0.0120481927710843</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2556,12 +3033,15 @@
         <v>0.0217391304347826</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2588,12 +3068,15 @@
         <v>0.147540983606557</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2620,12 +3103,15 @@
         <v>0.301587301587302</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2652,12 +3138,15 @@
         <v>0.0810810810810811</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2684,12 +3173,15 @@
         <v>0.00101317122593718</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2716,12 +3208,15 @@
         <v>0.0930232558139535</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2748,12 +3243,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2780,12 +3278,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2812,12 +3313,15 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2844,12 +3348,15 @@
         <v>0.03125</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2876,12 +3383,15 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2908,12 +3418,15 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2940,12 +3453,15 @@
         <v>0.075</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2972,12 +3488,15 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>197</v>
+      </c>
+      <c r="K64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3004,12 +3523,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="J65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3036,12 +3558,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>202</v>
+      </c>
+      <c r="K66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3068,12 +3593,21 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" t="s">
+        <v>207</v>
+      </c>
+      <c r="M67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3100,12 +3634,15 @@
         <v>0.578947368421053</v>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3132,12 +3669,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="J69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>212</v>
+      </c>
+      <c r="K69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3164,12 +3704,15 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>215</v>
+      </c>
+      <c r="K70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3196,12 +3739,15 @@
         <v>0.0253164556962025</v>
       </c>
       <c r="J71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>218</v>
+      </c>
+      <c r="K71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3228,12 +3774,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="J72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>221</v>
+      </c>
+      <c r="K72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3260,12 +3809,21 @@
         <v>0.119402985074627</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>224</v>
+      </c>
+      <c r="K73" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" t="s">
+        <v>226</v>
+      </c>
+      <c r="M73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3292,12 +3850,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="J74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>229</v>
+      </c>
+      <c r="K74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3324,12 +3885,15 @@
         <v>0.207547169811321</v>
       </c>
       <c r="J75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>232</v>
+      </c>
+      <c r="K75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3356,12 +3920,15 @@
         <v>0.239819004524887</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>235</v>
+      </c>
+      <c r="K76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3388,12 +3955,15 @@
         <v>0.0591133004926108</v>
       </c>
       <c r="J77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3420,12 +3990,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="J78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3452,12 +4025,15 @@
         <v>0.178571428571429</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>242</v>
+      </c>
+      <c r="K79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3484,12 +4060,15 @@
         <v>0.0256410256410256</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>245</v>
+      </c>
+      <c r="K80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3516,12 +4095,15 @@
         <v>0.0491803278688525</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3548,12 +4130,15 @@
         <v>0.09375</v>
       </c>
       <c r="J82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>250</v>
+      </c>
+      <c r="K82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3580,12 +4165,15 @@
         <v>0.025</v>
       </c>
       <c r="J83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3612,12 +4200,15 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="J84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>255</v>
+      </c>
+      <c r="K84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3644,12 +4235,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>258</v>
+      </c>
+      <c r="K85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3676,12 +4270,15 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3708,12 +4305,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3740,12 +4340,15 @@
         <v>0.1875</v>
       </c>
       <c r="J88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3772,12 +4375,15 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>267</v>
+      </c>
+      <c r="K89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3804,12 +4410,15 @@
         <v>0.0350877192982456</v>
       </c>
       <c r="J90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>270</v>
+      </c>
+      <c r="K90" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3836,12 +4445,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3868,12 +4480,15 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>275</v>
+      </c>
+      <c r="K92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3900,12 +4515,15 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3932,12 +4550,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="J94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>281</v>
+      </c>
+      <c r="K94" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3964,12 +4585,15 @@
         <v>0.0135135135135135</v>
       </c>
       <c r="J95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>284</v>
+      </c>
+      <c r="K95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3996,12 +4620,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="J96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>287</v>
+      </c>
+      <c r="K96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4028,7 +4655,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>190</v>
+        <v>290</v>
+      </c>
+      <c r="K97" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
